--- a/document/系统设计/权限文档.xlsx
+++ b/document/系统设计/权限文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>权限</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>allot-class-student</t>
+  </si>
+  <si>
+    <t>考勤记录</t>
+  </si>
+  <si>
+    <t>考勤记录查看</t>
+  </si>
+  <si>
+    <t>show-attendance</t>
   </si>
   <si>
     <t>教务参数</t>
@@ -576,15 +585,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,9 +613,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,14 +628,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -636,16 +635,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,9 +651,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,6 +681,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -699,21 +706,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,156 +797,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -945,30 +978,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,17 +991,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,16 +1010,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,6 +1041,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1046,39 +1088,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1087,10 +1096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,133 +1108,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,10 +1613,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2423,185 +2432,184 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="12"/>
-      <c r="B57" s="11" t="s">
+      <c r="B57" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12"/>
+      <c r="B58" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="13"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="13"/>
       <c r="B60" s="1"/>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="13"/>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="13"/>
+      <c r="B62" s="1"/>
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="A63" s="13"/>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="13"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="13"/>
       <c r="B65" s="1"/>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="13"/>
       <c r="B66" s="1"/>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="13"/>
-      <c r="B67" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="15"/>
+      <c r="A69" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="B69" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>159</v>
@@ -2617,13 +2625,13 @@
     <row r="70" spans="1:6">
       <c r="A70" s="15"/>
       <c r="B70" s="16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16">
@@ -2633,13 +2641,13 @@
     <row r="71" spans="1:6">
       <c r="A71" s="15"/>
       <c r="B71" s="16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16">
@@ -2647,77 +2655,93 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="15"/>
+      <c r="B72" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" s="16"/>
+      <c r="F72" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="17"/>
-      <c r="B73" s="11" t="s">
+      <c r="B73" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11">
+      <c r="F73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="17"/>
-      <c r="B74" t="s">
+      <c r="B74" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F74">
+      <c r="E74" s="11"/>
+      <c r="F74" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="17"/>
-      <c r="B75" s="11" t="s">
+      <c r="B75" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" t="s">
         <v>176</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" t="s">
         <v>177</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="17"/>
+      <c r="B76" s="11" t="s">
         <v>178</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2725,9 +2749,9 @@
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A38:A57"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A38:A58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A73:A76"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B21"/>
@@ -2736,8 +2760,8 @@
     <mergeCell ref="B38:B43"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
